--- a/Fallecidos_COVID19.xlsx
+++ b/Fallecidos_COVID19.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Nas12-03.sanidad.msc\ccaes\2. Rpta a Alertas y Análisis de Riesgos\ALERTAS por año\Alertas 2020\5. Covid\Actualizaciones\ACTUALIZACIONES EPIDEMIOLOGÍA\Fallecidos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="690" windowWidth="25440" windowHeight="12015"/>
   </bookViews>
   <sheets>
     <sheet name="Fallecidos COVID" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -85,7 +90,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -134,8 +139,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -150,12 +164,21 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="14">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="style1593174781075" xfId="1"/>
     <cellStyle name="style1593174781248" xfId="2"/>
     <cellStyle name="style1593174781296" xfId="3"/>
     <cellStyle name="style1593174781468" xfId="4"/>
+    <cellStyle name="style1594211996961" xfId="11"/>
+    <cellStyle name="style1594211996981" xfId="12"/>
+    <cellStyle name="style1594211997047" xfId="13"/>
+    <cellStyle name="style1594644358601" xfId="5"/>
+    <cellStyle name="style1594644358636" xfId="6"/>
+    <cellStyle name="style1594644358702" xfId="7"/>
+    <cellStyle name="style1594644359042" xfId="8"/>
+    <cellStyle name="style1594644359059" xfId="9"/>
+    <cellStyle name="style1594644359110" xfId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -213,7 +236,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -248,7 +271,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -459,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="X11" sqref="X10:X11"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="B159" sqref="B159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10137,7 +10160,7 @@
         <v>0</v>
       </c>
       <c r="J149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K149">
         <v>0</v>
@@ -10152,7 +10175,7 @@
         <v>0</v>
       </c>
       <c r="O149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P149">
         <v>0</v>
@@ -10170,7 +10193,7 @@
         <v>0</v>
       </c>
       <c r="U149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:21" x14ac:dyDescent="0.25">
@@ -10391,7 +10414,7 @@
         <v>0</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I153">
         <v>0</v>
@@ -10412,7 +10435,7 @@
         <v>0</v>
       </c>
       <c r="O153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P153">
         <v>0</v>
@@ -10430,15 +10453,78 @@
         <v>0</v>
       </c>
       <c r="U153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A154" s="3" t="s">
+      <c r="A154" s="1">
+        <v>44026</v>
+      </c>
+      <c r="B154">
+        <v>0</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
+      </c>
+      <c r="E154">
+        <v>0</v>
+      </c>
+      <c r="F154">
+        <v>0</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+      <c r="H154">
+        <v>0</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>0</v>
+      </c>
+      <c r="L154">
+        <v>0</v>
+      </c>
+      <c r="M154">
+        <v>0</v>
+      </c>
+      <c r="N154">
+        <v>0</v>
+      </c>
+      <c r="O154">
+        <v>0</v>
+      </c>
+      <c r="P154">
+        <v>0</v>
+      </c>
+      <c r="Q154">
+        <v>0</v>
+      </c>
+      <c r="R154">
+        <v>0</v>
+      </c>
+      <c r="S154">
+        <v>0</v>
+      </c>
+      <c r="T154">
+        <v>0</v>
+      </c>
+      <c r="U154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A155" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
       <c r="U155" s="2"/>
     </row>
     <row r="156" spans="1:21" x14ac:dyDescent="0.25">

--- a/Fallecidos_COVID19.xlsx
+++ b/Fallecidos_COVID19.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Nas12-03.sanidad.msc\ccaes\2. Rpta a Alertas y Análisis de Riesgos\ALERTAS por año\Alertas 2020\5. Covid\Actualizaciones\ACTUALIZACIONES EPIDEMIOLOGÍA\Fallecidos\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="690" windowWidth="25440" windowHeight="12015"/>
   </bookViews>
   <sheets>
     <sheet name="Fallecidos COVID" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -90,7 +85,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -236,7 +231,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -271,7 +266,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -480,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U156"/>
+  <dimension ref="A1:V157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="B159" sqref="B159"/>
+    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="A142" sqref="A142:A155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5711,7 +5706,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>43953</v>
       </c>
@@ -5776,7 +5771,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>43954</v>
       </c>
@@ -5841,7 +5836,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>43955</v>
       </c>
@@ -5906,7 +5901,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>43956</v>
       </c>
@@ -5971,7 +5966,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>43957</v>
       </c>
@@ -6036,7 +6031,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>43958</v>
       </c>
@@ -6101,7 +6096,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>43959</v>
       </c>
@@ -6166,7 +6161,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>43960</v>
       </c>
@@ -6231,7 +6226,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>43961</v>
       </c>
@@ -6296,7 +6291,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="90" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
         <v>43962</v>
       </c>
@@ -6361,7 +6356,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>43963</v>
       </c>
@@ -6425,8 +6420,9 @@
       <c r="U91">
         <v>108</v>
       </c>
-    </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V91" s="6"/>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>43964</v>
       </c>
@@ -6490,8 +6486,9 @@
       <c r="U92">
         <v>88</v>
       </c>
-    </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V92" s="6"/>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>43965</v>
       </c>
@@ -6555,8 +6552,9 @@
       <c r="U93">
         <v>83</v>
       </c>
-    </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V93" s="6"/>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>43966</v>
       </c>
@@ -6620,8 +6618,9 @@
       <c r="U94">
         <v>70</v>
       </c>
-    </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V94" s="6"/>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>43967</v>
       </c>
@@ -6685,8 +6684,9 @@
       <c r="U95">
         <v>58</v>
       </c>
-    </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V95" s="6"/>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>43968</v>
       </c>
@@ -6750,8 +6750,9 @@
       <c r="U96">
         <v>53</v>
       </c>
-    </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V96" s="6"/>
+    </row>
+    <row r="97" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>43969</v>
       </c>
@@ -6815,8 +6816,9 @@
       <c r="U97">
         <v>65</v>
       </c>
-    </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V97" s="6"/>
+    </row>
+    <row r="98" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>43970</v>
       </c>
@@ -6880,8 +6882,9 @@
       <c r="U98">
         <v>60</v>
       </c>
-    </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V98" s="6"/>
+    </row>
+    <row r="99" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>43971</v>
       </c>
@@ -6945,8 +6948,9 @@
       <c r="U99">
         <v>54</v>
       </c>
-    </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V99" s="6"/>
+    </row>
+    <row r="100" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>43972</v>
       </c>
@@ -7010,8 +7014,9 @@
       <c r="U100">
         <v>62</v>
       </c>
-    </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V100" s="6"/>
+    </row>
+    <row r="101" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>43973</v>
       </c>
@@ -7075,8 +7080,9 @@
       <c r="U101">
         <v>64</v>
       </c>
-    </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V101" s="6"/>
+    </row>
+    <row r="102" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>43974</v>
       </c>
@@ -7140,8 +7146,9 @@
       <c r="U102">
         <v>59</v>
       </c>
-    </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V102" s="6"/>
+    </row>
+    <row r="103" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>43975</v>
       </c>
@@ -7205,8 +7212,9 @@
       <c r="U103">
         <v>51</v>
       </c>
-    </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V103" s="6"/>
+    </row>
+    <row r="104" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>43976</v>
       </c>
@@ -7270,8 +7278,9 @@
       <c r="U104">
         <v>56</v>
       </c>
-    </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V104" s="6"/>
+    </row>
+    <row r="105" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>43977</v>
       </c>
@@ -7335,8 +7344,9 @@
       <c r="U105">
         <v>42</v>
       </c>
-    </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V105" s="6"/>
+    </row>
+    <row r="106" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>43978</v>
       </c>
@@ -7400,8 +7410,9 @@
       <c r="U106">
         <v>35</v>
       </c>
-    </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V106" s="6"/>
+    </row>
+    <row r="107" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>43979</v>
       </c>
@@ -7465,8 +7476,9 @@
       <c r="U107">
         <v>34</v>
       </c>
-    </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V107" s="6"/>
+    </row>
+    <row r="108" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>43980</v>
       </c>
@@ -7530,8 +7542,9 @@
       <c r="U108">
         <v>37</v>
       </c>
-    </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V108" s="6"/>
+    </row>
+    <row r="109" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>43981</v>
       </c>
@@ -7595,8 +7608,9 @@
       <c r="U109">
         <v>39</v>
       </c>
-    </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V109" s="6"/>
+    </row>
+    <row r="110" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>43982</v>
       </c>
@@ -7660,8 +7674,9 @@
       <c r="U110">
         <v>32</v>
       </c>
-    </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V110" s="6"/>
+    </row>
+    <row r="111" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>43983</v>
       </c>
@@ -7725,8 +7740,9 @@
       <c r="U111">
         <v>24</v>
       </c>
-    </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V111" s="6"/>
+    </row>
+    <row r="112" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>43984</v>
       </c>
@@ -7790,8 +7806,9 @@
       <c r="U112">
         <v>34</v>
       </c>
-    </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V112" s="6"/>
+    </row>
+    <row r="113" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>43985</v>
       </c>
@@ -7855,8 +7872,9 @@
       <c r="U113">
         <v>24</v>
       </c>
-    </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V113" s="6"/>
+    </row>
+    <row r="114" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>43986</v>
       </c>
@@ -7920,8 +7938,9 @@
       <c r="U114">
         <v>33</v>
       </c>
-    </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V114" s="6"/>
+    </row>
+    <row r="115" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>43987</v>
       </c>
@@ -7985,8 +8004,9 @@
       <c r="U115">
         <v>16</v>
       </c>
-    </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V115" s="6"/>
+    </row>
+    <row r="116" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>43988</v>
       </c>
@@ -8050,8 +8070,9 @@
       <c r="U116">
         <v>21</v>
       </c>
-    </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V116" s="6"/>
+    </row>
+    <row r="117" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>43989</v>
       </c>
@@ -8074,7 +8095,7 @@
         <v>0</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117">
         <v>7</v>
@@ -8113,10 +8134,11 @@
         <v>0</v>
       </c>
       <c r="U117">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="V117" s="6"/>
+    </row>
+    <row r="118" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>43990</v>
       </c>
@@ -8180,8 +8202,9 @@
       <c r="U118">
         <v>19</v>
       </c>
-    </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V118" s="6"/>
+    </row>
+    <row r="119" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>43991</v>
       </c>
@@ -8245,8 +8268,9 @@
       <c r="U119">
         <v>11</v>
       </c>
-    </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V119" s="6"/>
+    </row>
+    <row r="120" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>43992</v>
       </c>
@@ -8310,8 +8334,9 @@
       <c r="U120">
         <v>25</v>
       </c>
-    </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V120" s="6"/>
+    </row>
+    <row r="121" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>43993</v>
       </c>
@@ -8375,8 +8400,9 @@
       <c r="U121">
         <v>15</v>
       </c>
-    </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V121" s="6"/>
+    </row>
+    <row r="122" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>43994</v>
       </c>
@@ -8440,8 +8466,9 @@
       <c r="U122">
         <v>9</v>
       </c>
-    </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V122" s="6"/>
+    </row>
+    <row r="123" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>43995</v>
       </c>
@@ -8505,8 +8532,9 @@
       <c r="U123">
         <v>10</v>
       </c>
-    </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V123" s="6"/>
+    </row>
+    <row r="124" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>43996</v>
       </c>
@@ -8570,8 +8598,9 @@
       <c r="U124">
         <v>9</v>
       </c>
-    </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V124" s="6"/>
+    </row>
+    <row r="125" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>43997</v>
       </c>
@@ -8635,8 +8664,9 @@
       <c r="U125">
         <v>9</v>
       </c>
-    </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V125" s="6"/>
+    </row>
+    <row r="126" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>43998</v>
       </c>
@@ -8700,8 +8730,9 @@
       <c r="U126">
         <v>6</v>
       </c>
-    </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V126" s="6"/>
+    </row>
+    <row r="127" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>43999</v>
       </c>
@@ -8745,7 +8776,7 @@
         <v>0</v>
       </c>
       <c r="O127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P127">
         <v>0</v>
@@ -8763,10 +8794,11 @@
         <v>0</v>
       </c>
       <c r="U127">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="V127" s="6"/>
+    </row>
+    <row r="128" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>44000</v>
       </c>
@@ -8830,8 +8862,9 @@
       <c r="U128">
         <v>2</v>
       </c>
-    </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V128" s="6"/>
+    </row>
+    <row r="129" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>44001</v>
       </c>
@@ -8895,8 +8928,9 @@
       <c r="U129">
         <v>3</v>
       </c>
-    </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V129" s="6"/>
+    </row>
+    <row r="130" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>44002</v>
       </c>
@@ -8960,8 +8994,9 @@
       <c r="U130">
         <v>3</v>
       </c>
-    </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V130" s="6"/>
+    </row>
+    <row r="131" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>44003</v>
       </c>
@@ -9025,8 +9060,9 @@
       <c r="U131">
         <v>5</v>
       </c>
-    </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V131" s="6"/>
+    </row>
+    <row r="132" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>44004</v>
       </c>
@@ -9090,8 +9126,9 @@
       <c r="U132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V132" s="6"/>
+    </row>
+    <row r="133" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>44005</v>
       </c>
@@ -9155,8 +9192,9 @@
       <c r="U133">
         <v>4</v>
       </c>
-    </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V133" s="6"/>
+    </row>
+    <row r="134" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>44006</v>
       </c>
@@ -9220,8 +9258,9 @@
       <c r="U134">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V134" s="6"/>
+    </row>
+    <row r="135" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>44007</v>
       </c>
@@ -9285,8 +9324,9 @@
       <c r="U135">
         <v>5</v>
       </c>
-    </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V135" s="6"/>
+    </row>
+    <row r="136" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>44008</v>
       </c>
@@ -9350,8 +9390,9 @@
       <c r="U136">
         <v>4</v>
       </c>
-    </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V136" s="6"/>
+    </row>
+    <row r="137" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>44009</v>
       </c>
@@ -9415,8 +9456,9 @@
       <c r="U137">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V137" s="6"/>
+    </row>
+    <row r="138" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>44010</v>
       </c>
@@ -9480,8 +9522,9 @@
       <c r="U138">
         <v>7</v>
       </c>
-    </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V138" s="6"/>
+    </row>
+    <row r="139" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>44011</v>
       </c>
@@ -9545,8 +9588,9 @@
       <c r="U139">
         <v>6</v>
       </c>
-    </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V139" s="6"/>
+    </row>
+    <row r="140" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>44012</v>
       </c>
@@ -9610,8 +9654,9 @@
       <c r="U140">
         <v>3</v>
       </c>
-    </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V140" s="6"/>
+    </row>
+    <row r="141" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>44013</v>
       </c>
@@ -9675,8 +9720,9 @@
       <c r="U141">
         <v>4</v>
       </c>
-    </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V141" s="6"/>
+    </row>
+    <row r="142" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>44014</v>
       </c>
@@ -9740,8 +9786,9 @@
       <c r="U142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V142" s="6"/>
+    </row>
+    <row r="143" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>44015</v>
       </c>
@@ -9805,8 +9852,9 @@
       <c r="U143">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V143" s="6"/>
+    </row>
+    <row r="144" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>44016</v>
       </c>
@@ -9870,8 +9918,9 @@
       <c r="U144" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V144" s="6"/>
+    </row>
+    <row r="145" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>44017</v>
       </c>
@@ -9935,8 +9984,9 @@
       <c r="U145" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V145" s="6"/>
+    </row>
+    <row r="146" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>44018</v>
       </c>
@@ -10000,8 +10050,9 @@
       <c r="U146">
         <v>2</v>
       </c>
-    </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V146" s="6"/>
+    </row>
+    <row r="147" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>44019</v>
       </c>
@@ -10065,8 +10116,9 @@
       <c r="U147">
         <v>2</v>
       </c>
-    </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V147" s="6"/>
+    </row>
+    <row r="148" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>44020</v>
       </c>
@@ -10130,8 +10182,9 @@
       <c r="U148">
         <v>2</v>
       </c>
-    </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V148" s="6"/>
+    </row>
+    <row r="149" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>44021</v>
       </c>
@@ -10195,8 +10248,9 @@
       <c r="U149">
         <v>2</v>
       </c>
-    </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V149" s="6"/>
+    </row>
+    <row r="150" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>44022</v>
       </c>
@@ -10260,8 +10314,9 @@
       <c r="U150">
         <v>2</v>
       </c>
-    </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V150" s="6"/>
+    </row>
+    <row r="151" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>44023</v>
       </c>
@@ -10325,8 +10380,9 @@
       <c r="U151" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V151" s="6"/>
+    </row>
+    <row r="152" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>44024</v>
       </c>
@@ -10390,8 +10446,9 @@
       <c r="U152" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V152" s="6"/>
+    </row>
+    <row r="153" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>44025</v>
       </c>
@@ -10455,8 +10512,9 @@
       <c r="U153">
         <v>2</v>
       </c>
-    </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V153" s="6"/>
+    </row>
+    <row r="154" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>44026</v>
       </c>
@@ -10520,15 +10578,84 @@
       <c r="U154">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A155" s="3" t="s">
+      <c r="V154" s="6"/>
+    </row>
+    <row r="155" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>44027</v>
+      </c>
+      <c r="B155">
+        <v>0</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
+      <c r="E155">
+        <v>0</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
+      <c r="H155">
+        <v>0</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>0</v>
+      </c>
+      <c r="L155">
+        <v>0</v>
+      </c>
+      <c r="M155">
+        <v>0</v>
+      </c>
+      <c r="N155">
+        <v>0</v>
+      </c>
+      <c r="O155">
+        <v>0</v>
+      </c>
+      <c r="P155">
+        <v>0</v>
+      </c>
+      <c r="Q155">
+        <v>0</v>
+      </c>
+      <c r="R155">
+        <v>1</v>
+      </c>
+      <c r="S155">
+        <v>0</v>
+      </c>
+      <c r="T155">
+        <v>0</v>
+      </c>
+      <c r="U155" s="2">
+        <v>1</v>
+      </c>
+      <c r="V155" s="6"/>
+    </row>
+    <row r="156" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A156" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="U155" s="2"/>
-    </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
       <c r="U156" s="2"/>
+      <c r="V156" s="6"/>
+    </row>
+    <row r="157" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U157" s="2"/>
+      <c r="V157" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Fallecidos_COVID19.xlsx
+++ b/Fallecidos_COVID19.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Nas12-03.sanidad.msc\ccaes\2. Rpta a Alertas y Análisis de Riesgos\ALERTAS por año\Alertas 2020\5. Covid\Actualizaciones\ACTUALIZACIONES EPIDEMIOLOGÍA\Fallecidos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="690" windowWidth="25440" windowHeight="12015"/>
   </bookViews>
   <sheets>
     <sheet name="Fallecidos COVID" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -85,7 +90,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -134,8 +139,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="14">
+  <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -159,7 +170,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="14">
+  <cellStyles count="20">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="style1593174781075" xfId="1"/>
     <cellStyle name="style1593174781248" xfId="2"/>
@@ -174,6 +185,12 @@
     <cellStyle name="style1594644359042" xfId="8"/>
     <cellStyle name="style1594644359059" xfId="9"/>
     <cellStyle name="style1594644359110" xfId="10"/>
+    <cellStyle name="style1594992383844" xfId="14"/>
+    <cellStyle name="style1594992383862" xfId="17"/>
+    <cellStyle name="style1594992383898" xfId="15"/>
+    <cellStyle name="style1594992383916" xfId="18"/>
+    <cellStyle name="style1594992383953" xfId="16"/>
+    <cellStyle name="style1594992383971" xfId="19"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -231,7 +248,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -266,7 +283,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -475,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V157"/>
+  <dimension ref="A1:V158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="A142" sqref="A142:A155"/>
+    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="U157" sqref="U157:V158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8818,7 +8835,7 @@
         <v>0</v>
       </c>
       <c r="G128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H128">
         <v>0</v>
@@ -8860,7 +8877,7 @@
         <v>0</v>
       </c>
       <c r="U128">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V128" s="6"/>
     </row>
@@ -10603,7 +10620,7 @@
         <v>0</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155">
         <v>0</v>
@@ -10624,7 +10641,7 @@
         <v>0</v>
       </c>
       <c r="O155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P155">
         <v>0</v>
@@ -10642,20 +10659,86 @@
         <v>0</v>
       </c>
       <c r="U155" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V155" s="6"/>
     </row>
     <row r="156" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A156" s="3" t="s">
+      <c r="A156" s="1">
+        <v>44028</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+      <c r="D156">
+        <v>0</v>
+      </c>
+      <c r="E156">
+        <v>0</v>
+      </c>
+      <c r="F156">
+        <v>0</v>
+      </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
+      <c r="H156">
+        <v>0</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>0</v>
+      </c>
+      <c r="L156">
+        <v>0</v>
+      </c>
+      <c r="M156">
+        <v>0</v>
+      </c>
+      <c r="N156">
+        <v>0</v>
+      </c>
+      <c r="O156">
+        <v>0</v>
+      </c>
+      <c r="P156">
+        <v>0</v>
+      </c>
+      <c r="Q156">
+        <v>0</v>
+      </c>
+      <c r="R156">
+        <v>0</v>
+      </c>
+      <c r="S156">
+        <v>0</v>
+      </c>
+      <c r="T156">
+        <v>0</v>
+      </c>
+      <c r="U156" s="2">
+        <v>0</v>
+      </c>
+      <c r="V156" s="6"/>
+    </row>
+    <row r="157" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A157" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="U156" s="2"/>
-      <c r="V156" s="6"/>
-    </row>
-    <row r="157" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U157" s="2"/>
       <c r="V157" s="2"/>
+    </row>
+    <row r="158" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U158" s="2"/>
+      <c r="V158" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Fallecidos_COVID19.xlsx
+++ b/Fallecidos_COVID19.xlsx
@@ -91,7 +91,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,13 +110,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -161,12 +154,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
@@ -492,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V158"/>
+  <dimension ref="A1:V162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
-      <selection activeCell="U157" sqref="U157:V158"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="U160" sqref="U160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6308,68 +6300,68 @@
         <v>106</v>
       </c>
     </row>
-    <row r="90" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="5">
+    <row r="90" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
         <v>43962</v>
       </c>
-      <c r="B90" s="6">
+      <c r="B90" s="5">
         <v>5</v>
       </c>
-      <c r="C90" s="6">
+      <c r="C90" s="5">
         <v>4</v>
       </c>
-      <c r="D90" s="6">
+      <c r="D90" s="5">
         <v>3</v>
       </c>
-      <c r="E90" s="6">
-        <v>2</v>
-      </c>
-      <c r="F90" s="6">
-        <v>1</v>
-      </c>
-      <c r="G90" s="6">
-        <v>1</v>
-      </c>
-      <c r="H90" s="6">
+      <c r="E90" s="5">
+        <v>2</v>
+      </c>
+      <c r="F90" s="5">
+        <v>1</v>
+      </c>
+      <c r="G90" s="5">
+        <v>1</v>
+      </c>
+      <c r="H90" s="5">
         <v>13</v>
       </c>
-      <c r="I90" s="6">
+      <c r="I90" s="5">
         <v>6</v>
       </c>
-      <c r="J90" s="6">
+      <c r="J90" s="5">
         <v>31</v>
       </c>
-      <c r="K90" s="6">
-        <v>0</v>
-      </c>
-      <c r="L90" s="6">
+      <c r="K90" s="5">
+        <v>0</v>
+      </c>
+      <c r="L90" s="5">
         <v>7</v>
       </c>
-      <c r="M90" s="6">
+      <c r="M90" s="5">
         <v>4</v>
       </c>
-      <c r="N90" s="6">
-        <v>1</v>
-      </c>
-      <c r="O90" s="6">
+      <c r="N90" s="5">
+        <v>1</v>
+      </c>
+      <c r="O90" s="5">
         <v>29</v>
       </c>
-      <c r="P90" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q90" s="6">
-        <v>0</v>
-      </c>
-      <c r="R90" s="6">
-        <v>2</v>
-      </c>
-      <c r="S90" s="6">
+      <c r="P90" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q90" s="5">
+        <v>0</v>
+      </c>
+      <c r="R90" s="5">
+        <v>2</v>
+      </c>
+      <c r="S90" s="5">
         <v>8</v>
       </c>
-      <c r="T90" s="6">
-        <v>1</v>
-      </c>
-      <c r="U90" s="6">
+      <c r="T90" s="5">
+        <v>1</v>
+      </c>
+      <c r="U90">
         <v>118</v>
       </c>
     </row>
@@ -6437,7 +6429,7 @@
       <c r="U91">
         <v>108</v>
       </c>
-      <c r="V91" s="6"/>
+      <c r="V91" s="5"/>
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
@@ -6503,7 +6495,7 @@
       <c r="U92">
         <v>88</v>
       </c>
-      <c r="V92" s="6"/>
+      <c r="V92" s="5"/>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
@@ -6569,7 +6561,7 @@
       <c r="U93">
         <v>83</v>
       </c>
-      <c r="V93" s="6"/>
+      <c r="V93" s="5"/>
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
@@ -6635,7 +6627,7 @@
       <c r="U94">
         <v>70</v>
       </c>
-      <c r="V94" s="6"/>
+      <c r="V94" s="5"/>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
@@ -6701,7 +6693,7 @@
       <c r="U95">
         <v>58</v>
       </c>
-      <c r="V95" s="6"/>
+      <c r="V95" s="5"/>
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
@@ -6767,7 +6759,7 @@
       <c r="U96">
         <v>53</v>
       </c>
-      <c r="V96" s="6"/>
+      <c r="V96" s="5"/>
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
@@ -6833,7 +6825,7 @@
       <c r="U97">
         <v>65</v>
       </c>
-      <c r="V97" s="6"/>
+      <c r="V97" s="5"/>
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
@@ -6899,7 +6891,7 @@
       <c r="U98">
         <v>60</v>
       </c>
-      <c r="V98" s="6"/>
+      <c r="V98" s="5"/>
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
@@ -6965,7 +6957,7 @@
       <c r="U99">
         <v>54</v>
       </c>
-      <c r="V99" s="6"/>
+      <c r="V99" s="5"/>
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
@@ -7031,7 +7023,7 @@
       <c r="U100">
         <v>62</v>
       </c>
-      <c r="V100" s="6"/>
+      <c r="V100" s="5"/>
     </row>
     <row r="101" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
@@ -7097,7 +7089,7 @@
       <c r="U101">
         <v>64</v>
       </c>
-      <c r="V101" s="6"/>
+      <c r="V101" s="5"/>
     </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
@@ -7163,7 +7155,7 @@
       <c r="U102">
         <v>59</v>
       </c>
-      <c r="V102" s="6"/>
+      <c r="V102" s="5"/>
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
@@ -7229,7 +7221,7 @@
       <c r="U103">
         <v>51</v>
       </c>
-      <c r="V103" s="6"/>
+      <c r="V103" s="5"/>
     </row>
     <row r="104" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
@@ -7295,7 +7287,7 @@
       <c r="U104">
         <v>56</v>
       </c>
-      <c r="V104" s="6"/>
+      <c r="V104" s="5"/>
     </row>
     <row r="105" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
@@ -7361,7 +7353,7 @@
       <c r="U105">
         <v>42</v>
       </c>
-      <c r="V105" s="6"/>
+      <c r="V105" s="5"/>
     </row>
     <row r="106" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
@@ -7427,7 +7419,7 @@
       <c r="U106">
         <v>35</v>
       </c>
-      <c r="V106" s="6"/>
+      <c r="V106" s="5"/>
     </row>
     <row r="107" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
@@ -7493,7 +7485,7 @@
       <c r="U107">
         <v>34</v>
       </c>
-      <c r="V107" s="6"/>
+      <c r="V107" s="5"/>
     </row>
     <row r="108" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
@@ -7559,7 +7551,7 @@
       <c r="U108">
         <v>37</v>
       </c>
-      <c r="V108" s="6"/>
+      <c r="V108" s="5"/>
     </row>
     <row r="109" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
@@ -7625,7 +7617,7 @@
       <c r="U109">
         <v>39</v>
       </c>
-      <c r="V109" s="6"/>
+      <c r="V109" s="5"/>
     </row>
     <row r="110" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
@@ -7691,7 +7683,7 @@
       <c r="U110">
         <v>32</v>
       </c>
-      <c r="V110" s="6"/>
+      <c r="V110" s="5"/>
     </row>
     <row r="111" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
@@ -7757,7 +7749,7 @@
       <c r="U111">
         <v>24</v>
       </c>
-      <c r="V111" s="6"/>
+      <c r="V111" s="5"/>
     </row>
     <row r="112" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
@@ -7823,7 +7815,7 @@
       <c r="U112">
         <v>34</v>
       </c>
-      <c r="V112" s="6"/>
+      <c r="V112" s="5"/>
     </row>
     <row r="113" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
@@ -7889,7 +7881,7 @@
       <c r="U113">
         <v>24</v>
       </c>
-      <c r="V113" s="6"/>
+      <c r="V113" s="5"/>
     </row>
     <row r="114" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
@@ -7955,7 +7947,7 @@
       <c r="U114">
         <v>33</v>
       </c>
-      <c r="V114" s="6"/>
+      <c r="V114" s="5"/>
     </row>
     <row r="115" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
@@ -8021,7 +8013,7 @@
       <c r="U115">
         <v>16</v>
       </c>
-      <c r="V115" s="6"/>
+      <c r="V115" s="5"/>
     </row>
     <row r="116" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
@@ -8087,7 +8079,7 @@
       <c r="U116">
         <v>21</v>
       </c>
-      <c r="V116" s="6"/>
+      <c r="V116" s="5"/>
     </row>
     <row r="117" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
@@ -8153,7 +8145,7 @@
       <c r="U117">
         <v>14</v>
       </c>
-      <c r="V117" s="6"/>
+      <c r="V117" s="5"/>
     </row>
     <row r="118" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
@@ -8219,7 +8211,7 @@
       <c r="U118">
         <v>19</v>
       </c>
-      <c r="V118" s="6"/>
+      <c r="V118" s="5"/>
     </row>
     <row r="119" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
@@ -8285,7 +8277,7 @@
       <c r="U119">
         <v>11</v>
       </c>
-      <c r="V119" s="6"/>
+      <c r="V119" s="5"/>
     </row>
     <row r="120" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
@@ -8351,7 +8343,7 @@
       <c r="U120">
         <v>25</v>
       </c>
-      <c r="V120" s="6"/>
+      <c r="V120" s="5"/>
     </row>
     <row r="121" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
@@ -8417,7 +8409,7 @@
       <c r="U121">
         <v>15</v>
       </c>
-      <c r="V121" s="6"/>
+      <c r="V121" s="5"/>
     </row>
     <row r="122" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
@@ -8483,7 +8475,7 @@
       <c r="U122">
         <v>9</v>
       </c>
-      <c r="V122" s="6"/>
+      <c r="V122" s="5"/>
     </row>
     <row r="123" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
@@ -8549,7 +8541,7 @@
       <c r="U123">
         <v>10</v>
       </c>
-      <c r="V123" s="6"/>
+      <c r="V123" s="5"/>
     </row>
     <row r="124" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
@@ -8615,7 +8607,7 @@
       <c r="U124">
         <v>9</v>
       </c>
-      <c r="V124" s="6"/>
+      <c r="V124" s="5"/>
     </row>
     <row r="125" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
@@ -8681,7 +8673,7 @@
       <c r="U125">
         <v>9</v>
       </c>
-      <c r="V125" s="6"/>
+      <c r="V125" s="5"/>
     </row>
     <row r="126" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
@@ -8747,7 +8739,7 @@
       <c r="U126">
         <v>6</v>
       </c>
-      <c r="V126" s="6"/>
+      <c r="V126" s="5"/>
     </row>
     <row r="127" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
@@ -8813,7 +8805,7 @@
       <c r="U127">
         <v>6</v>
       </c>
-      <c r="V127" s="6"/>
+      <c r="V127" s="5"/>
     </row>
     <row r="128" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
@@ -8879,7 +8871,7 @@
       <c r="U128">
         <v>3</v>
       </c>
-      <c r="V128" s="6"/>
+      <c r="V128" s="5"/>
     </row>
     <row r="129" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
@@ -8945,7 +8937,7 @@
       <c r="U129">
         <v>3</v>
       </c>
-      <c r="V129" s="6"/>
+      <c r="V129" s="5"/>
     </row>
     <row r="130" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
@@ -9011,7 +9003,7 @@
       <c r="U130">
         <v>3</v>
       </c>
-      <c r="V130" s="6"/>
+      <c r="V130" s="5"/>
     </row>
     <row r="131" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
@@ -9077,7 +9069,7 @@
       <c r="U131">
         <v>5</v>
       </c>
-      <c r="V131" s="6"/>
+      <c r="V131" s="5"/>
     </row>
     <row r="132" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
@@ -9143,7 +9135,7 @@
       <c r="U132">
         <v>0</v>
       </c>
-      <c r="V132" s="6"/>
+      <c r="V132" s="5"/>
     </row>
     <row r="133" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
@@ -9209,7 +9201,7 @@
       <c r="U133">
         <v>4</v>
       </c>
-      <c r="V133" s="6"/>
+      <c r="V133" s="5"/>
     </row>
     <row r="134" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
@@ -9275,7 +9267,7 @@
       <c r="U134">
         <v>1</v>
       </c>
-      <c r="V134" s="6"/>
+      <c r="V134" s="5"/>
     </row>
     <row r="135" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
@@ -9341,7 +9333,7 @@
       <c r="U135">
         <v>5</v>
       </c>
-      <c r="V135" s="6"/>
+      <c r="V135" s="5"/>
     </row>
     <row r="136" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
@@ -9407,7 +9399,7 @@
       <c r="U136">
         <v>4</v>
       </c>
-      <c r="V136" s="6"/>
+      <c r="V136" s="5"/>
     </row>
     <row r="137" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
@@ -9473,7 +9465,7 @@
       <c r="U137">
         <v>1</v>
       </c>
-      <c r="V137" s="6"/>
+      <c r="V137" s="5"/>
     </row>
     <row r="138" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
@@ -9539,7 +9531,7 @@
       <c r="U138">
         <v>7</v>
       </c>
-      <c r="V138" s="6"/>
+      <c r="V138" s="5"/>
     </row>
     <row r="139" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
@@ -9605,7 +9597,7 @@
       <c r="U139">
         <v>6</v>
       </c>
-      <c r="V139" s="6"/>
+      <c r="V139" s="5"/>
     </row>
     <row r="140" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
@@ -9630,7 +9622,7 @@
         <v>0</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140">
         <v>0</v>
@@ -9669,9 +9661,9 @@
         <v>0</v>
       </c>
       <c r="U140">
-        <v>3</v>
-      </c>
-      <c r="V140" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="V140" s="5"/>
     </row>
     <row r="141" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
@@ -9737,7 +9729,7 @@
       <c r="U141">
         <v>4</v>
       </c>
-      <c r="V141" s="6"/>
+      <c r="V141" s="5"/>
     </row>
     <row r="142" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
@@ -9803,7 +9795,7 @@
       <c r="U142">
         <v>0</v>
       </c>
-      <c r="V142" s="6"/>
+      <c r="V142" s="5"/>
     </row>
     <row r="143" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
@@ -9869,7 +9861,7 @@
       <c r="U143">
         <v>1</v>
       </c>
-      <c r="V143" s="6"/>
+      <c r="V143" s="5"/>
     </row>
     <row r="144" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
@@ -9932,10 +9924,10 @@
       <c r="T144">
         <v>0</v>
       </c>
-      <c r="U144" s="2">
+      <c r="U144">
         <v>3</v>
       </c>
-      <c r="V144" s="6"/>
+      <c r="V144" s="5"/>
     </row>
     <row r="145" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
@@ -9998,10 +9990,10 @@
       <c r="T145">
         <v>0</v>
       </c>
-      <c r="U145" s="2">
-        <v>0</v>
-      </c>
-      <c r="V145" s="6"/>
+      <c r="U145">
+        <v>0</v>
+      </c>
+      <c r="V145" s="5"/>
     </row>
     <row r="146" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
@@ -10067,7 +10059,7 @@
       <c r="U146">
         <v>2</v>
       </c>
-      <c r="V146" s="6"/>
+      <c r="V146" s="5"/>
     </row>
     <row r="147" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
@@ -10133,7 +10125,7 @@
       <c r="U147">
         <v>2</v>
       </c>
-      <c r="V147" s="6"/>
+      <c r="V147" s="5"/>
     </row>
     <row r="148" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
@@ -10199,7 +10191,7 @@
       <c r="U148">
         <v>2</v>
       </c>
-      <c r="V148" s="6"/>
+      <c r="V148" s="5"/>
     </row>
     <row r="149" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
@@ -10265,7 +10257,7 @@
       <c r="U149">
         <v>2</v>
       </c>
-      <c r="V149" s="6"/>
+      <c r="V149" s="5"/>
     </row>
     <row r="150" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
@@ -10331,7 +10323,7 @@
       <c r="U150">
         <v>2</v>
       </c>
-      <c r="V150" s="6"/>
+      <c r="V150" s="5"/>
     </row>
     <row r="151" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
@@ -10394,10 +10386,10 @@
       <c r="T151">
         <v>0</v>
       </c>
-      <c r="U151" s="4">
-        <v>1</v>
-      </c>
-      <c r="V151" s="6"/>
+      <c r="U151">
+        <v>1</v>
+      </c>
+      <c r="V151" s="5"/>
     </row>
     <row r="152" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
@@ -10460,10 +10452,10 @@
       <c r="T152">
         <v>0</v>
       </c>
-      <c r="U152" s="2">
-        <v>1</v>
-      </c>
-      <c r="V152" s="6"/>
+      <c r="U152">
+        <v>1</v>
+      </c>
+      <c r="V152" s="5"/>
     </row>
     <row r="153" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
@@ -10529,7 +10521,7 @@
       <c r="U153">
         <v>2</v>
       </c>
-      <c r="V153" s="6"/>
+      <c r="V153" s="5"/>
     </row>
     <row r="154" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
@@ -10595,7 +10587,7 @@
       <c r="U154">
         <v>0</v>
       </c>
-      <c r="V154" s="6"/>
+      <c r="V154" s="5"/>
     </row>
     <row r="155" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
@@ -10623,7 +10615,7 @@
         <v>2</v>
       </c>
       <c r="I155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J155">
         <v>0</v>
@@ -10658,10 +10650,10 @@
       <c r="T155">
         <v>0</v>
       </c>
-      <c r="U155" s="2">
-        <v>4</v>
-      </c>
-      <c r="V155" s="6"/>
+      <c r="U155">
+        <v>5</v>
+      </c>
+      <c r="V155" s="5"/>
     </row>
     <row r="156" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
@@ -10724,21 +10716,218 @@
       <c r="T156">
         <v>0</v>
       </c>
-      <c r="U156" s="2">
-        <v>0</v>
-      </c>
-      <c r="V156" s="6"/>
+      <c r="U156">
+        <v>0</v>
+      </c>
+      <c r="V156" s="5"/>
     </row>
     <row r="157" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A157" s="3" t="s">
+      <c r="A157" s="1">
+        <v>44029</v>
+      </c>
+      <c r="B157">
+        <v>0</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="E157">
+        <v>0</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+      <c r="G157">
+        <v>0</v>
+      </c>
+      <c r="H157">
+        <v>0</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>0</v>
+      </c>
+      <c r="L157">
+        <v>0</v>
+      </c>
+      <c r="M157">
+        <v>0</v>
+      </c>
+      <c r="N157">
+        <v>0</v>
+      </c>
+      <c r="O157">
+        <v>1</v>
+      </c>
+      <c r="P157">
+        <v>0</v>
+      </c>
+      <c r="Q157">
+        <v>0</v>
+      </c>
+      <c r="R157">
+        <v>0</v>
+      </c>
+      <c r="S157">
+        <v>0</v>
+      </c>
+      <c r="T157">
+        <v>0</v>
+      </c>
+      <c r="U157">
+        <v>1</v>
+      </c>
+      <c r="V157" s="2"/>
+    </row>
+    <row r="158" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>44030</v>
+      </c>
+      <c r="B158">
+        <v>0</v>
+      </c>
+      <c r="C158">
+        <v>0</v>
+      </c>
+      <c r="D158">
+        <v>0</v>
+      </c>
+      <c r="E158">
+        <v>0</v>
+      </c>
+      <c r="F158">
+        <v>0</v>
+      </c>
+      <c r="G158">
+        <v>0</v>
+      </c>
+      <c r="H158">
+        <v>0</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <v>0</v>
+      </c>
+      <c r="L158">
+        <v>0</v>
+      </c>
+      <c r="M158">
+        <v>0</v>
+      </c>
+      <c r="N158">
+        <v>0</v>
+      </c>
+      <c r="O158">
+        <v>0</v>
+      </c>
+      <c r="P158">
+        <v>0</v>
+      </c>
+      <c r="Q158">
+        <v>0</v>
+      </c>
+      <c r="R158">
+        <v>0</v>
+      </c>
+      <c r="S158">
+        <v>0</v>
+      </c>
+      <c r="T158">
+        <v>0</v>
+      </c>
+      <c r="U158">
+        <v>0</v>
+      </c>
+      <c r="V158" s="2"/>
+    </row>
+    <row r="159" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>44031</v>
+      </c>
+      <c r="B159">
+        <v>0</v>
+      </c>
+      <c r="C159">
+        <v>0</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+      <c r="G159">
+        <v>0</v>
+      </c>
+      <c r="H159">
+        <v>0</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>0</v>
+      </c>
+      <c r="L159">
+        <v>1</v>
+      </c>
+      <c r="M159">
+        <v>0</v>
+      </c>
+      <c r="N159">
+        <v>0</v>
+      </c>
+      <c r="O159">
+        <v>0</v>
+      </c>
+      <c r="P159">
+        <v>0</v>
+      </c>
+      <c r="Q159">
+        <v>0</v>
+      </c>
+      <c r="R159">
+        <v>0</v>
+      </c>
+      <c r="S159">
+        <v>0</v>
+      </c>
+      <c r="T159">
+        <v>0</v>
+      </c>
+      <c r="U159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A160" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="U157" s="2"/>
-      <c r="V157" s="2"/>
-    </row>
-    <row r="158" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="U158" s="2"/>
-      <c r="V158" s="2"/>
+    </row>
+    <row r="161" spans="21:21" x14ac:dyDescent="0.25">
+      <c r="U161" s="2"/>
+    </row>
+    <row r="162" spans="21:21" x14ac:dyDescent="0.25">
+      <c r="U162" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Fallecidos_COVID19.xlsx
+++ b/Fallecidos_COVID19.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Nas12-03.sanidad.msc\ccaes\2. Rpta a Alertas y Análisis de Riesgos\ALERTAS por año\Alertas 2020\5. Covid\Actualizaciones\ACTUALIZACIONES EPIDEMIOLOGÍA\Fallecidos\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="690" windowWidth="25440" windowHeight="12015"/>
   </bookViews>
   <sheets>
     <sheet name="Fallecidos COVID" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -90,7 +85,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -240,7 +235,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -275,7 +270,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -484,11 +479,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V162"/>
+  <dimension ref="A1:V163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="U160" sqref="U160"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9757,7 +9750,7 @@
         <v>0</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J142">
         <v>0</v>
@@ -9793,7 +9786,7 @@
         <v>0</v>
       </c>
       <c r="U142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V142" s="5"/>
     </row>
@@ -9823,7 +9816,7 @@
         <v>0</v>
       </c>
       <c r="I143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J143">
         <v>0</v>
@@ -9859,7 +9852,7 @@
         <v>0</v>
       </c>
       <c r="U143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V143" s="5"/>
     </row>
@@ -9934,7 +9927,7 @@
         <v>44017</v>
       </c>
       <c r="B145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -9955,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="I145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J145">
         <v>0</v>
@@ -9991,7 +9984,7 @@
         <v>0</v>
       </c>
       <c r="U145">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V145" s="5"/>
     </row>
@@ -10000,7 +9993,7 @@
         <v>44018</v>
       </c>
       <c r="B146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -10039,7 +10032,7 @@
         <v>0</v>
       </c>
       <c r="O146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P146">
         <v>0</v>
@@ -10087,7 +10080,7 @@
         <v>0</v>
       </c>
       <c r="I147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J147">
         <v>0</v>
@@ -10105,7 +10098,7 @@
         <v>0</v>
       </c>
       <c r="O147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P147">
         <v>0</v>
@@ -10123,7 +10116,7 @@
         <v>0</v>
       </c>
       <c r="U147">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V147" s="5"/>
     </row>
@@ -10897,7 +10890,7 @@
         <v>0</v>
       </c>
       <c r="O159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P159">
         <v>0</v>
@@ -10915,19 +10908,85 @@
         <v>0</v>
       </c>
       <c r="U159">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A160" s="3" t="s">
+      <c r="A160" s="1">
+        <v>44032</v>
+      </c>
+      <c r="B160">
+        <v>0</v>
+      </c>
+      <c r="C160">
+        <v>0</v>
+      </c>
+      <c r="D160">
+        <v>0</v>
+      </c>
+      <c r="E160">
+        <v>0</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
+      <c r="G160">
+        <v>0</v>
+      </c>
+      <c r="H160">
+        <v>0</v>
+      </c>
+      <c r="I160">
+        <v>1</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <v>0</v>
+      </c>
+      <c r="L160">
+        <v>0</v>
+      </c>
+      <c r="M160">
+        <v>0</v>
+      </c>
+      <c r="N160">
+        <v>0</v>
+      </c>
+      <c r="O160">
+        <v>0</v>
+      </c>
+      <c r="P160">
+        <v>0</v>
+      </c>
+      <c r="Q160">
+        <v>0</v>
+      </c>
+      <c r="R160">
+        <v>0</v>
+      </c>
+      <c r="S160">
+        <v>0</v>
+      </c>
+      <c r="T160">
+        <v>0</v>
+      </c>
+      <c r="U160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A161" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="161" spans="21:21" x14ac:dyDescent="0.25">
       <c r="U161" s="2"/>
     </row>
-    <row r="162" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
       <c r="U162" s="2"/>
+    </row>
+    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U163" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Fallecidos_COVID19.xlsx
+++ b/Fallecidos_COVID19.xlsx
@@ -479,9 +479,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V163"/>
+  <dimension ref="A1:V164"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8097,7 +8100,7 @@
         <v>0</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117">
         <v>7</v>
@@ -8136,7 +8139,7 @@
         <v>0</v>
       </c>
       <c r="U117">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="V117" s="5"/>
     </row>
@@ -9750,7 +9753,7 @@
         <v>0</v>
       </c>
       <c r="I142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J142">
         <v>0</v>
@@ -9786,7 +9789,7 @@
         <v>0</v>
       </c>
       <c r="U142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V142" s="5"/>
     </row>
@@ -9816,7 +9819,7 @@
         <v>0</v>
       </c>
       <c r="I143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143">
         <v>0</v>
@@ -9852,7 +9855,7 @@
         <v>0</v>
       </c>
       <c r="U143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V143" s="5"/>
     </row>
@@ -9927,7 +9930,7 @@
         <v>44017</v>
       </c>
       <c r="B145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -9948,7 +9951,7 @@
         <v>0</v>
       </c>
       <c r="I145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J145">
         <v>0</v>
@@ -9984,7 +9987,7 @@
         <v>0</v>
       </c>
       <c r="U145">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V145" s="5"/>
     </row>
@@ -9993,7 +9996,7 @@
         <v>44018</v>
       </c>
       <c r="B146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -10032,7 +10035,7 @@
         <v>0</v>
       </c>
       <c r="O146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P146">
         <v>0</v>
@@ -10080,7 +10083,7 @@
         <v>0</v>
       </c>
       <c r="I147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J147">
         <v>0</v>
@@ -10098,7 +10101,7 @@
         <v>0</v>
       </c>
       <c r="O147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P147">
         <v>0</v>
@@ -10116,7 +10119,7 @@
         <v>0</v>
       </c>
       <c r="U147">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V147" s="5"/>
     </row>
@@ -10743,7 +10746,7 @@
         <v>0</v>
       </c>
       <c r="J157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K157">
         <v>0</v>
@@ -10776,7 +10779,7 @@
         <v>0</v>
       </c>
       <c r="U157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V157" s="2"/>
     </row>
@@ -10809,7 +10812,7 @@
         <v>0</v>
       </c>
       <c r="J158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K158">
         <v>0</v>
@@ -10842,7 +10845,7 @@
         <v>0</v>
       </c>
       <c r="U158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V158" s="2"/>
     </row>
@@ -10955,7 +10958,7 @@
         <v>0</v>
       </c>
       <c r="O160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P160">
         <v>0</v>
@@ -10973,20 +10976,85 @@
         <v>0</v>
       </c>
       <c r="U160">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A161" s="3" t="s">
+      <c r="A161" s="1">
+        <v>44033</v>
+      </c>
+      <c r="B161">
+        <v>0</v>
+      </c>
+      <c r="C161">
+        <v>0</v>
+      </c>
+      <c r="D161">
+        <v>0</v>
+      </c>
+      <c r="E161">
+        <v>0</v>
+      </c>
+      <c r="F161">
+        <v>0</v>
+      </c>
+      <c r="G161">
+        <v>0</v>
+      </c>
+      <c r="H161">
+        <v>0</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161">
+        <v>0</v>
+      </c>
+      <c r="L161">
+        <v>0</v>
+      </c>
+      <c r="M161">
+        <v>0</v>
+      </c>
+      <c r="N161">
+        <v>0</v>
+      </c>
+      <c r="O161">
+        <v>0</v>
+      </c>
+      <c r="P161">
+        <v>0</v>
+      </c>
+      <c r="Q161">
+        <v>0</v>
+      </c>
+      <c r="R161">
+        <v>0</v>
+      </c>
+      <c r="S161">
+        <v>0</v>
+      </c>
+      <c r="T161">
+        <v>0</v>
+      </c>
+      <c r="U161" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A162" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="U161" s="2"/>
-    </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
       <c r="U162" s="2"/>
     </row>
     <row r="163" spans="1:21" x14ac:dyDescent="0.25">
       <c r="U163" s="2"/>
+    </row>
+    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U164" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Fallecidos_COVID19.xlsx
+++ b/Fallecidos_COVID19.xlsx
@@ -79,7 +79,7 @@
     <t>Fecha / CCAA</t>
   </si>
   <si>
-    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 209 casos en el momento de publicar este fichero </t>
+    <t xml:space="preserve">*Nº de casos por fecha de defunción. No se dispone de la fecha de defunción en 210 casos en el momento de publicar este fichero </t>
   </si>
 </sst>
 </file>
@@ -479,7 +479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V164"/>
+  <dimension ref="A1:V166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -8166,7 +8166,7 @@
         <v>0</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118">
         <v>7</v>
@@ -8205,7 +8205,7 @@
         <v>0</v>
       </c>
       <c r="U118">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="V118" s="5"/>
     </row>
@@ -9618,7 +9618,7 @@
         <v>0</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I140">
         <v>0</v>
@@ -9657,7 +9657,7 @@
         <v>0</v>
       </c>
       <c r="U140">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V140" s="5"/>
     </row>
@@ -10281,7 +10281,7 @@
         <v>1</v>
       </c>
       <c r="I150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J150">
         <v>1</v>
@@ -10317,7 +10317,7 @@
         <v>0</v>
       </c>
       <c r="U150">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V150" s="5"/>
     </row>
@@ -10575,13 +10575,13 @@
         <v>0</v>
       </c>
       <c r="S154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T154">
         <v>0</v>
       </c>
       <c r="U154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V154" s="5"/>
     </row>
@@ -10839,13 +10839,13 @@
         <v>0</v>
       </c>
       <c r="S158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T158">
         <v>0</v>
       </c>
       <c r="U158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V158" s="2"/>
     </row>
@@ -11035,26 +11035,156 @@
         <v>0</v>
       </c>
       <c r="S161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T161">
         <v>0</v>
       </c>
       <c r="U161" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A162" s="3" t="s">
+      <c r="A162" s="1">
+        <v>44034</v>
+      </c>
+      <c r="B162">
+        <v>1</v>
+      </c>
+      <c r="C162">
+        <v>0</v>
+      </c>
+      <c r="D162">
+        <v>0</v>
+      </c>
+      <c r="E162">
+        <v>0</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
+      <c r="G162">
+        <v>0</v>
+      </c>
+      <c r="H162">
+        <v>0</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <v>0</v>
+      </c>
+      <c r="L162">
+        <v>0</v>
+      </c>
+      <c r="M162">
+        <v>0</v>
+      </c>
+      <c r="N162">
+        <v>0</v>
+      </c>
+      <c r="O162">
+        <v>0</v>
+      </c>
+      <c r="P162">
+        <v>0</v>
+      </c>
+      <c r="Q162">
+        <v>0</v>
+      </c>
+      <c r="R162">
+        <v>0</v>
+      </c>
+      <c r="S162">
+        <v>0</v>
+      </c>
+      <c r="T162">
+        <v>0</v>
+      </c>
+      <c r="U162" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>44035</v>
+      </c>
+      <c r="B163">
+        <v>0</v>
+      </c>
+      <c r="C163">
+        <v>0</v>
+      </c>
+      <c r="D163">
+        <v>0</v>
+      </c>
+      <c r="E163">
+        <v>0</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+      <c r="G163">
+        <v>0</v>
+      </c>
+      <c r="H163">
+        <v>0</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="K163">
+        <v>0</v>
+      </c>
+      <c r="L163">
+        <v>0</v>
+      </c>
+      <c r="M163">
+        <v>0</v>
+      </c>
+      <c r="N163">
+        <v>0</v>
+      </c>
+      <c r="O163">
+        <v>0</v>
+      </c>
+      <c r="P163">
+        <v>0</v>
+      </c>
+      <c r="Q163">
+        <v>0</v>
+      </c>
+      <c r="R163">
+        <v>0</v>
+      </c>
+      <c r="S163">
+        <v>0</v>
+      </c>
+      <c r="T163">
+        <v>0</v>
+      </c>
+      <c r="U163" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A164" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="U162" s="2"/>
-    </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="U163" s="2"/>
-    </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
       <c r="U164" s="2"/>
+    </row>
+    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U165" s="2"/>
+    </row>
+    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U166" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
